--- a/P4_01_analyse.xlsx
+++ b/P4_01_analyse.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDAA8DE1-43B2-4F7F-84BF-510FC63CB1EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{711004C4-E670-406D-8CF1-888275F7345A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
   <si>
     <t>Catégorie</t>
   </si>
@@ -141,42 +141,6 @@
   </si>
   <si>
     <t>essayer de minimiser le nombre de lien n'ayant pas de rapport direct</t>
-  </si>
-  <si>
-    <t>Les icones sociales renvoient sur la page d'acceuil du site</t>
-  </si>
-  <si>
-    <t>Utiliser des liens sociaux permet à la page d'être partagée</t>
-  </si>
-  <si>
-    <t>Implémenter des lien sociaux et utiliser les balise open graph</t>
-  </si>
-  <si>
-    <t>Pas de fichier .htaccess</t>
-  </si>
-  <si>
-    <t>Un fichier .htaccess permet d'utiliser le cache du navigateur et d'accelerer le chargment</t>
-  </si>
-  <si>
-    <t>Créer un fichier .htaccess et définir une date d'expiration pertinente</t>
-  </si>
-  <si>
-    <t>Non respect de la sémantique HTML</t>
-  </si>
-  <si>
-    <t>Le site n'utilise principalement que des balises génériques (&lt;div&gt; et &lt;span&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utiliser des balises sémantiques tel que &lt;header&gt; &lt;article&gt; &lt;section&gt; &lt;footer&gt; </t>
-  </si>
-  <si>
-    <t>Erreur dans les fichiers html et css et utilisation de methodes deprecated</t>
-  </si>
-  <si>
-    <t>Des erreurs dans le html et css créent des erreur au niveau de lma validation w3c</t>
-  </si>
-  <si>
-    <t>Toujours penser à vérifier que le code est validé par w3c</t>
   </si>
   <si>
     <t>Référence</t>
@@ -768,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.33203125" defaultRowHeight="31.5" customHeight="1"/>
@@ -993,80 +957,40 @@
         <v>36</v>
       </c>
       <c r="E11" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="31.5" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="31.5" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="31.5" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="31.5" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="31.5" customHeight="1">
@@ -1192,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5073DA-0E7E-42E6-9264-60504F634944}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1223,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
@@ -1231,13 +1155,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4" t="b">
         <v>1</v>
@@ -1248,13 +1172,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4" t="b">
         <v>1</v>
@@ -1265,13 +1189,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E4" s="4" t="b">
         <v>1</v>
@@ -1282,13 +1206,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E5" s="4" t="b">
         <v>1</v>
@@ -1299,13 +1223,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="b">
         <v>1</v>
@@ -1316,13 +1240,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E7" s="4" t="b">
         <v>1</v>
@@ -1333,13 +1257,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E8" s="4" t="b">
         <v>1</v>
@@ -1350,13 +1274,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4" t="b">
         <v>1</v>
@@ -1367,13 +1291,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E10" s="4" t="b">
         <v>1</v>
@@ -1384,13 +1308,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E11" s="4" t="b">
         <v>1</v>
@@ -1401,13 +1325,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>1</v>
@@ -1418,13 +1342,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E13" s="4" t="b">
         <v>1</v>
@@ -1435,13 +1359,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E14" s="4" t="b">
         <v>1</v>
@@ -1452,13 +1376,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="b">
         <v>1</v>
@@ -1469,13 +1393,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E16" s="4" t="b">
         <v>1</v>
@@ -1486,13 +1410,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E17" s="4" t="b">
         <v>1</v>
@@ -1503,13 +1427,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>1</v>
@@ -1520,13 +1444,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E19" s="4" t="b">
         <v>1</v>
@@ -1537,13 +1461,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E20" s="4" t="b">
         <v>1</v>
@@ -1554,13 +1478,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E21" s="4" t="b">
         <v>1</v>
@@ -1571,13 +1495,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E22" s="4" t="b">
         <v>1</v>
@@ -1588,13 +1512,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E23" s="4" t="b">
         <v>1</v>
@@ -1605,13 +1529,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E24" s="4" t="b">
         <v>0</v>
@@ -1622,13 +1546,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E25" s="4" t="b">
         <v>0</v>
@@ -1642,10 +1566,10 @@
         <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E26" s="4" t="b">
         <v>0</v>
@@ -1656,13 +1580,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E27" s="4" t="b">
         <v>0</v>
@@ -1673,13 +1597,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E28" s="4" t="b">
         <v>0</v>
@@ -1690,13 +1614,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E29" s="4" t="b">
         <v>0</v>
@@ -1707,13 +1631,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E30" s="4" t="b">
         <v>0</v>
@@ -1724,13 +1648,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E31" s="4" t="b">
         <v>0</v>
@@ -1741,13 +1665,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E32" s="4" t="b">
         <v>1</v>
@@ -1758,13 +1682,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E33" s="4" t="b">
         <v>1</v>
@@ -1775,13 +1699,13 @@
         <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E34" s="4" t="b">
         <v>1</v>
@@ -1792,13 +1716,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E35" s="4" t="b">
         <v>1</v>
@@ -1809,13 +1733,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E36" s="4" t="b">
         <v>1</v>
